--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnfsf14</t>
+  </si>
+  <si>
+    <t>Ltbr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf14</t>
-  </si>
-  <si>
-    <t>Ltbr</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.02601766666666666</v>
+        <v>0.723809</v>
       </c>
       <c r="H2">
-        <v>0.078053</v>
+        <v>2.171427</v>
       </c>
       <c r="I2">
-        <v>0.02802616153292364</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.02802616153292364</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.30399166666667</v>
+        <v>12.87437866666667</v>
       </c>
       <c r="N2">
-        <v>33.911975</v>
+        <v>38.623136</v>
       </c>
       <c r="O2">
-        <v>0.2607347834842907</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="P2">
-        <v>0.2607347834842906</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="Q2">
-        <v>0.2941034871861111</v>
+        <v>9.318591148341334</v>
       </c>
       <c r="R2">
-        <v>2.646931384675</v>
+        <v>83.86732033507201</v>
       </c>
       <c r="S2">
-        <v>0.007307395159182601</v>
+        <v>0.272778495601419</v>
       </c>
       <c r="T2">
-        <v>0.0073073951591826</v>
+        <v>0.272778495601419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02601766666666666</v>
+        <v>0.723809</v>
       </c>
       <c r="H3">
-        <v>0.078053</v>
+        <v>2.171427</v>
       </c>
       <c r="I3">
-        <v>0.02802616153292364</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.02802616153292364</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.11316100000001</v>
       </c>
       <c r="O3">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="P3">
-        <v>0.4083645536274804</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="Q3">
-        <v>0.4606268395036666</v>
+        <v>12.814594650083</v>
       </c>
       <c r="R3">
-        <v>4.145641555533</v>
+        <v>115.331351850747</v>
       </c>
       <c r="S3">
-        <v>0.01144489094428402</v>
+        <v>0.3751152716914535</v>
       </c>
       <c r="T3">
-        <v>0.01144489094428402</v>
+        <v>0.3751152716914535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02601766666666666</v>
+        <v>0.723809</v>
       </c>
       <c r="H4">
-        <v>0.078053</v>
+        <v>2.171427</v>
       </c>
       <c r="I4">
-        <v>0.02802616153292364</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.02802616153292364</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.771252666666666</v>
+        <v>8.077278666666666</v>
       </c>
       <c r="N4">
-        <v>17.313758</v>
+        <v>24.231836</v>
       </c>
       <c r="O4">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="P4">
-        <v>0.1331181372783333</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="Q4">
-        <v>0.1501545281304444</v>
+        <v>5.846406994441334</v>
       </c>
       <c r="R4">
-        <v>1.351390753174</v>
+        <v>52.617662949972</v>
       </c>
       <c r="S4">
-        <v>0.003730790418324472</v>
+        <v>0.1711389714636405</v>
       </c>
       <c r="T4">
-        <v>0.003730790418324472</v>
+        <v>0.1711389714636405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02601766666666666</v>
+        <v>0.723809</v>
       </c>
       <c r="H5">
-        <v>0.078053</v>
+        <v>2.171427</v>
       </c>
       <c r="I5">
-        <v>0.02802616153292364</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.02802616153292364</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.574736333333334</v>
+        <v>8.541146333333332</v>
       </c>
       <c r="N5">
-        <v>25.724209</v>
+        <v>25.623439</v>
       </c>
       <c r="O5">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="P5">
-        <v>0.1977825256098957</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="Q5">
-        <v>0.2230946316752222</v>
+        <v>6.182158586383666</v>
       </c>
       <c r="R5">
-        <v>2.007851685077</v>
+        <v>55.639427277453</v>
       </c>
       <c r="S5">
-        <v>0.005543085011132542</v>
+        <v>0.180967261243487</v>
       </c>
       <c r="T5">
-        <v>0.005543085011132542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.9023173333333333</v>
-      </c>
-      <c r="H6">
-        <v>2.706952</v>
-      </c>
-      <c r="I6">
-        <v>0.9719738384670763</v>
-      </c>
-      <c r="J6">
-        <v>0.9719738384670763</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>11.30399166666667</v>
-      </c>
-      <c r="N6">
-        <v>33.911975</v>
-      </c>
-      <c r="O6">
-        <v>0.2607347834842907</v>
-      </c>
-      <c r="P6">
-        <v>0.2607347834842906</v>
-      </c>
-      <c r="Q6">
-        <v>10.19978761668889</v>
-      </c>
-      <c r="R6">
-        <v>91.79808855019999</v>
-      </c>
-      <c r="S6">
-        <v>0.2534273883251081</v>
-      </c>
-      <c r="T6">
-        <v>0.253427388325108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9023173333333333</v>
-      </c>
-      <c r="H7">
-        <v>2.706952</v>
-      </c>
-      <c r="I7">
-        <v>0.9719738384670763</v>
-      </c>
-      <c r="J7">
-        <v>0.9719738384670763</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>17.704387</v>
-      </c>
-      <c r="N7">
-        <v>53.11316100000001</v>
-      </c>
-      <c r="O7">
-        <v>0.4083645536274804</v>
-      </c>
-      <c r="P7">
-        <v>0.4083645536274804</v>
-      </c>
-      <c r="Q7">
-        <v>15.97497526614133</v>
-      </c>
-      <c r="R7">
-        <v>143.774777395272</v>
-      </c>
-      <c r="S7">
-        <v>0.3969196626831963</v>
-      </c>
-      <c r="T7">
-        <v>0.3969196626831963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.9023173333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.706952</v>
-      </c>
-      <c r="I8">
-        <v>0.9719738384670763</v>
-      </c>
-      <c r="J8">
-        <v>0.9719738384670763</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>5.771252666666666</v>
-      </c>
-      <c r="N8">
-        <v>17.313758</v>
-      </c>
-      <c r="O8">
-        <v>0.1331181372783333</v>
-      </c>
-      <c r="P8">
-        <v>0.1331181372783333</v>
-      </c>
-      <c r="Q8">
-        <v>5.207501316179555</v>
-      </c>
-      <c r="R8">
-        <v>46.86751184561599</v>
-      </c>
-      <c r="S8">
-        <v>0.1293873468600088</v>
-      </c>
-      <c r="T8">
-        <v>0.1293873468600088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.9023173333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.706952</v>
-      </c>
-      <c r="I9">
-        <v>0.9719738384670763</v>
-      </c>
-      <c r="J9">
-        <v>0.9719738384670763</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.574736333333334</v>
-      </c>
-      <c r="N9">
-        <v>25.724209</v>
-      </c>
-      <c r="O9">
-        <v>0.1977825256098957</v>
-      </c>
-      <c r="P9">
-        <v>0.1977825256098957</v>
-      </c>
-      <c r="Q9">
-        <v>7.737133222329778</v>
-      </c>
-      <c r="R9">
-        <v>69.634199000968</v>
-      </c>
-      <c r="S9">
-        <v>0.1922394405987631</v>
-      </c>
-      <c r="T9">
-        <v>0.1922394405987631</v>
+        <v>0.180967261243487</v>
       </c>
     </row>
   </sheetData>
